--- a/pred_ohlcv/54_21/2019-10-26 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 QTUM ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>6100.5457926</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8324.992798229998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>10637.72929823</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>14138.84409823</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>15935.29909823</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>17670.02029823</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>17459.33439823</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>16124.51219823</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>17994.65199822999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>17330.78739822999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>17659.78739822999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>17737.88739822999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>17736.88690170999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>17754.97590170999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>17754.97590170999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>18004.78220170999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>17649.78220170999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>19059.93160170999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>19058.93160170999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>18843.73980170999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>20092.20770170999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>20183.73400170999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>20243.83640170999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>20696.25580170999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>20731.63640170999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>20731.63640170999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>22759.77030170999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>23041.34820170999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>22948.68990170999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>22938.21670170999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>25176.64290170999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>25690.54750171</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>25690.54750171</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>25361.52310171</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>25600.66390171</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>25600.66390171</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>28206.66180171</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>30587.07360171</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>28833.00400171</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>28837.00400171</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>29799.35940171</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>32938.41750171</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>32146.74750171</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>32146.74750171</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>32146.74750171</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>32988.67040171</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>32988.67040171</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>32296.41702299</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>32714.55432299</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>33075.08512298999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>32671.54642298999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>32757.55232298999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>32210.09342298999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>29175.56082298999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>29173.51402298999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>30089.77262298999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>26812.75222298999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>26403.17422298999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>24875.20502298999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>24978.52202298999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>24859.58612298999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24811.86412298999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24475.18602298999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>24475.18602298999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>23669.72241048999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>24990.18701157999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>24990.18701157999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>25967.13311157999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>26586.97011157999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>26699.59701157999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>36846.95521157999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>36385.50461157999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>36395.30461158</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>36395.30461158</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>36155.10461158</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>36073.03481158</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>36063.03481158</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>36063.03481158</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>36063.03481158</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>36016.90321158</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>36016.90321158</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>36062.26471158</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>36134.67941158</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>36535.67931158</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>36468.87331158001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>36468.87331158001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>36930.98201158</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>36930.98201158</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>36930.98201158</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>38442.62221158</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>38522.62221158</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>38505.33331158</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>38541.33331158</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>38510.99831158</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>43132.96464981</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>43104.99284981001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>41904.99284981001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>45613.58524981001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>44627.32124981</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>45329.51734981</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>44935.28484981001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>42449.11224981001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>42449.11224981001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>42448.11224981001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>40989.67044981001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>40989.67044981001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>40984.27514981001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>41289.70294981001</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>42929.86814981</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>43922.50414981</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>43692.86264981001</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>43692.86264981001</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>43793.38914981001</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>43575.42484981001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>53614.05674981001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>53614.05674981001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>53566.44834981001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>54632.66824981001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>54358.85884981001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>54358.85884981001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>54798.18400492001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>54782.88950492001</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>54782.88950492001</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>52299.84110492001</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>52294.84110492001</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>53004.81370492001</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>53560.48430492001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>53554.58430492</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>53267.28590492001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>53267.28590492001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>53205.04740492001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>52886.16640492</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>52571.32740492</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>52334.47630492</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>52734.68620492001</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>52734.68620492001</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>52588.68620492001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>53036.85620492</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>53077.85620492</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>54796.08750492</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>54626.28430492</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>55887.57920492</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>58952.13360492</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>58952.13360492</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>58714.86916323</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>58714.86916323</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>58714.86916323</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>57472.25136323</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>57492.70496323</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>57492.70496323</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>57864.41756323</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>60577.26646323</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>60255.21226323</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>61736.97616323</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>62106.90146323</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>63021.73236323</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>69031.48812136</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>62744.47682136</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>56199.85312136001</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>57062.78812136</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>60329.64422136</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>57159.67762136</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>57848.99122136</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>57700.59622136001</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>57257.72212136001</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>60661.28958948</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>60458.11238948</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>60458.11238948</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>62429.25768948</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>62521.01088948</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>62132.85618948</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>62302.54498948</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>61126.56008948</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>61147.88068948</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>61896.23918948</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>62067.37338948</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>62067.37338948</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>64231.60365006</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>65310.83925006</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>65034.97905006</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>77310.55654343999</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>73202.49360274999</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>62743.44010274999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>68159.98990274999</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>70775.92720275</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>74831.77270274999</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>70117.62370274999</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>63374.36620274999</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>66487.01470274999</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>67855.34490275</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>68985.79690275001</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>71187.84270275</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>70238.02780275</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>69343.12990275001</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>67505.47270275</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>68040.63832751001</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>66986.02432751001</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>59657.49192751001</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>73598.80238325999</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>73513.13508325999</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>73474.18048325999</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>74113.29518325999</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>74459.78918326</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>75217.75758326</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>75752.60808326</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>77635.63058326</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>75765.53158326</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>75950.45908326001</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>75481.85458326001</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>75733.07658326</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>75753.07788326</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>74533.51068326</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>74962.51268325999</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>86332.79604474</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>86325.09604474</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>86169.27827202</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>81965.06537202001</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>82167.58107202001</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>82058.98107202</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>81833.52627202</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>81735.48237201999</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>81842.15417201999</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>81078.45727201999</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>42856.13781291003</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>42790.36761291003</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>44327.13981291003</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>44458.03981291004</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>43833.51171291004</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>43407.42461291004</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>43408.81251291004</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>43408.81251291004</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>46446.81581291004</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>46688.79481291004</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>46806.49471291004</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>46718.77581291004</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>45171.44321291004</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>45080.59001291004</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>45080.59001291004</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>45342.20701291004</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>45342.20701291004</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>44955.33861291004</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>45026.49631291004</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>45026.49631291004</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>44626.49631291004</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>44408.49631291004</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>44412.61111291005</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>44209.61071291005</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>43491.58681291005</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>43495.70161291005</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>43605.17661291005</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>44572.29451291005</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>44652.21401291004</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>44695.80721291005</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>44695.80721291005</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>44693.80721291005</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>44508.38091291005</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>44558.86546889005</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>44770.86546889005</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>44771.86546889005</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 QTUM ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>9028.895392599999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>15251.2971926</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>13462.8614926</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>16871.8266926</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8324.992798229998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>10637.72929823</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>14138.84409823</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>15935.29909823</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>17670.02029823</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>17459.33439823</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>16124.51219823</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>17994.65199822999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>17330.78739822999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>17659.78739822999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>17737.88739822999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>17736.88690170999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>17754.97590170999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>17754.97590170999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>18004.78220170999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>17649.78220170999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>19059.93160170999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>19058.93160170999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>18843.73980170999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>20092.20770170999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>20183.73400170999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>20243.83640170999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>20696.25580170999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>20731.63640170999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>20731.63640170999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>22759.77030170999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>23041.34820170999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>22948.68990170999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>22938.21670170999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>25176.64290170999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>25690.54750171</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>25690.54750171</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>25361.52310171</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>25600.66390171</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>25600.66390171</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>28206.66180171</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>30587.07360171</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>28833.00400171</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>28837.00400171</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>29799.35940171</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>32938.41750171</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>32146.74750171</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>32146.74750171</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>32146.74750171</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>32988.67040171</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>32988.67040171</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>32296.41702299</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>32714.55432299</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>33075.08512298999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>32671.54642298999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>32757.55232298999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>32210.09342298999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>29175.56082298999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>29173.51402298999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>30089.77262298999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>26812.75222298999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>26403.17422298999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>24875.20502298999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>24978.52202298999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>24859.58612298999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>24811.86412298999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24475.18602298999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>24475.18602298999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>23669.72241048999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>24990.18701157999</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>24990.18701157999</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>26045.72441157999</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>25967.13311157999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>26586.97011157999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>26699.59701157999</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>36846.95521157999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>36385.50461157999</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>36395.30461158</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>36395.30461158</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>36155.10461158</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>36073.03481158</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>36063.03481158</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>36063.03481158</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>36063.03481158</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>36016.90321158</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>36016.90321158</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>36062.26471158</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>36134.67941158</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>36535.67931158</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>36468.87331158001</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>36468.87331158001</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>36930.98201158</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>36930.98201158</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>36930.98201158</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>38442.62221158</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>38522.62221158</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>38505.33331158</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>38541.33331158</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>38510.99831158</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>43132.96464981</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>43104.99284981001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>41904.99284981001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>45613.58524981001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>44627.32124981</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>45329.51734981</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>44935.28484981001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>42449.11224981001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>42449.11224981001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>42448.11224981001</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>40989.67044981001</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>40989.67044981001</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>40984.27514981001</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>41289.70294981001</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>42929.86814981</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>43922.50414981</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>43692.86264981001</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>43692.86264981001</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>43793.38914981001</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>43575.42484981001</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>53614.05674981001</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>53614.05674981001</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>53566.44834981001</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>54632.66824981001</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>54358.85884981001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>54358.85884981001</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>54798.18400492001</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>54782.88950492001</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>54782.88950492001</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>52299.84110492001</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>52294.84110492001</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>53004.81370492001</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>53560.48430492001</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>53554.58430492</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>53267.28590492001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>53267.28590492001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>53205.04740492001</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>52886.16640492</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>52571.32740492</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>52334.47630492</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>52734.68620492001</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>52734.68620492001</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>52588.68620492001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>53036.85620492</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>53077.85620492</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>54796.08750492</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>54626.28430492</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>55887.57920492</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>58952.13360492</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>58952.13360492</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>58714.86916323</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>58714.86916323</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>58714.86916323</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>57472.25136323</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>57492.70496323</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>57492.70496323</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>57864.41756323</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>60577.26646323</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>60255.21226323</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>61736.97616323</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>62106.90146323</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>63021.73236323</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>69031.48812136</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>62744.47682136</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>56199.85312136001</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>57062.78812136</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>60329.64422136</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>57159.67762136</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>57848.99122136</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>57700.59622136001</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>57257.72212136001</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>60661.28958948</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>60458.11238948</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>60458.11238948</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>62429.25768948</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>62521.01088948</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>62132.85618948</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>62302.54498948</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>61126.56008948</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>61147.88068948</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>61896.23918948</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>62067.37338948</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>62067.37338948</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>64231.60365006</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>65310.83925006</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>65034.97905006</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>89056.73687357998</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>78784.55837357999</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>77310.55654343999</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>73202.49360274999</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>62743.44010274999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>68159.98990274999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>70775.92720275</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>74640.01660274999</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>74831.77270274999</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>70117.62370274999</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>63374.36620274999</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>67912.19080274999</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>66027.85770274999</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>66487.01470274999</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>64479.12200274999</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>65591.29370275</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>69541.22260275</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>67855.34490275</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>75525.20680275001</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>68985.79690275001</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>71187.84270275</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>70238.02780275</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>69343.12990275001</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>67505.47270275</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>68040.63832751001</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>66986.02432751001</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>63509.20462751001</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>59657.49192751001</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>60484.65862751001</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>62451.92172751001</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>58371.87592751001</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>55916.58432751001</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>55646.58432751001</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>68740.72068985998</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>70606.47558985998</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>73763.03658985998</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>73715.87448985998</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>73930.13798985998</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>73931.59748985998</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>71999.32608985998</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>71159.46228985998</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>71439.64768985998</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>71511.11758985998</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>73285.00768985998</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>73556.27418985998</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>71735.77418985998</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>72597.82808325998</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>72564.68418325999</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>76038.64148325998</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>75690.01738325998</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>75406.81258325998</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>75499.95058325998</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>73598.80238325999</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>73512.27968325999</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>73513.13508325999</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>73474.18048325999</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>74113.29518325999</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>74459.78918326</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>75217.75758326</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>75752.60808326</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>77635.63058326</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>75765.53158326</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>75950.45908326001</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>75481.85458326001</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>75733.07658326</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>75753.07788326</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>74533.51068326</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>74962.51268325999</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>86332.79604474</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>86325.09604474</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>86169.27827202</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>81965.06537202001</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>82167.58107202001</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>82058.98107202</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>81833.52627202</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>81735.48237201999</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>81842.15417201999</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>81078.45727201999</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>80777.45727201999</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>80508.45037202</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>80211.95577202</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>79947.52277201999</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>80016.44167202</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>42856.13781291003</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>42790.36761291003</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>43031.54826812004</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>44327.13981291003</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>44458.03981291004</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>43793.05871291004</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>43833.51171291004</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>43407.42461291004</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>43408.81251291004</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>43408.81251291004</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>46446.81581291004</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>46688.79481291004</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>46806.49471291004</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>46718.77581291004</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>45171.44321291004</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>45080.59001291004</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>45080.59001291004</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>45342.20701291004</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>45342.20701291004</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>44955.33861291004</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>45026.49631291004</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>45026.49631291004</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>44626.49631291004</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>44408.49631291004</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>44412.61111291005</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>44209.61071291005</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>43491.58681291005</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>43495.70161291005</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>43605.17661291005</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>44572.29451291005</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>44555.97801291005</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>44652.21401291004</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>44695.80721291005</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>44695.80721291005</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>44693.80721291005</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>44508.38091291005</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>44558.86546889005</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>44770.86546889005</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>44771.86546889005</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
